--- a/Design/Gantt Kort.xlsx
+++ b/Design/Gantt Kort.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loket\Documents\Kea DAT18B\1. Semester\Delfin 1.Semester afleveringsprøve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loket\Documents\Kea DAT18B\1. Semester\Delfin 1.Semester afleveringsprøve\Delfin\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100010_{4B874632-E972-4937-AEF0-E33D8A856F9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{29F8B7C9-06F0-47EE-82C7-4840D04A09C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>AKTIVITET</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>Domænemodel</t>
-  </si>
-  <si>
-    <t>SD</t>
   </si>
   <si>
     <t>Klassediagram</t>
@@ -583,6 +580,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -630,9 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1043,10 +1040,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO31"/>
+  <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1073,11 +1070,11 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
@@ -1085,66 +1082,66 @@
         <v>21</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="35"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1171,12 +1168,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1375,12 +1372,12 @@
         <v>3</v>
       </c>
       <c r="G5" s="8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="38" t="s">
-        <v>37</v>
+      <c r="B6" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -1389,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1409,13 +1406,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1459,32 +1456,32 @@
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
@@ -1500,10 +1497,10 @@
         <v>5</v>
       </c>
       <c r="F12" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="8">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1511,48 +1508,48 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
-        <v>2</v>
-      </c>
       <c r="E13" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="7">
-        <v>6</v>
-      </c>
-      <c r="D14" s="7">
-        <v>5</v>
-      </c>
-      <c r="E14" s="7">
-        <v>6</v>
-      </c>
-      <c r="F14" s="7">
-        <v>7</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
+      <c r="C15" s="7">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
@@ -1562,111 +1559,111 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" s="7">
         <v>9</v>
       </c>
       <c r="F16" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G16" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="7">
-        <v>9</v>
-      </c>
-      <c r="D17" s="7">
-        <v>6</v>
-      </c>
-      <c r="E17" s="7">
-        <v>9</v>
-      </c>
-      <c r="F17" s="7">
-        <v>7</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="B19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F20" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G20" s="8">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7">
         <v>2</v>
       </c>
-      <c r="C21" s="7">
-        <v>10</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="E21" s="7">
+        <v>11</v>
+      </c>
+      <c r="F21" s="7">
         <v>5</v>
       </c>
-      <c r="E21" s="7">
-        <v>10</v>
-      </c>
-      <c r="F21" s="7">
-        <v>3</v>
-      </c>
       <c r="G21" s="8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E22" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G22" s="8">
         <v>0</v>
@@ -1674,19 +1671,19 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="7">
         <v>12</v>
       </c>
       <c r="D23" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E23" s="7">
         <v>12</v>
       </c>
       <c r="F23" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
@@ -1694,19 +1691,19 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7">
         <v>5</v>
       </c>
-      <c r="C24" s="7">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
       <c r="E24" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
@@ -1714,141 +1711,121 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="7">
         <v>14</v>
       </c>
       <c r="D25" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E25" s="7">
         <v>14</v>
       </c>
       <c r="F25" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G25" s="8">
-        <v>0</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
       </c>
       <c r="D26" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="7">
         <v>14</v>
       </c>
       <c r="F26" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="8">
-        <v>0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7">
+        <v>15</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4</v>
+      </c>
+      <c r="E27" s="7">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7">
         <v>8</v>
       </c>
-      <c r="C27" s="7">
-        <v>14</v>
-      </c>
-      <c r="D27" s="7">
-        <v>7</v>
-      </c>
-      <c r="E27" s="7">
-        <v>14</v>
-      </c>
-      <c r="F27" s="7">
-        <v>3</v>
-      </c>
       <c r="G27" s="8">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
         <v>15</v>
       </c>
       <c r="D28" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="7">
         <v>15</v>
       </c>
       <c r="F28" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G28" s="8">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="7">
         <v>15</v>
       </c>
       <c r="D29" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E29" s="7">
         <v>15</v>
       </c>
       <c r="F29" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" s="7">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E30" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="7">
-        <v>16</v>
-      </c>
-      <c r="D31" s="7">
-        <v>28</v>
-      </c>
-      <c r="E31" s="7">
-        <v>16</v>
-      </c>
-      <c r="F31" s="7">
-        <v>30</v>
-      </c>
-      <c r="G31" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -1867,7 +1844,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO31">
+  <conditionalFormatting sqref="H5:BO30">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>ProcentdelFuldført</formula>
     </cfRule>
@@ -1893,7 +1870,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:BO32">
+  <conditionalFormatting sqref="B31:BO31">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>

--- a/Design/Gantt Kort.xlsx
+++ b/Design/Gantt Kort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loket\Documents\Kea DAT18B\1. Semester\Delfin 1.Semester afleveringsprøve\Delfin\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{29F8B7C9-06F0-47EE-82C7-4840D04A09C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7BF7BFD8-40FC-42C0-B198-DF3C5C40E88A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,8 +1042,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1426,13 +1426,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1446,13 +1446,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1468,19 +1468,19 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1488,19 +1488,19 @@
         <v>31</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1508,19 +1508,19 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">

--- a/Design/Gantt Kort.xlsx
+++ b/Design/Gantt Kort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loket\Documents\Kea DAT18B\1. Semester\Delfin 1.Semester afleveringsprøve\Delfin\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7BF7BFD8-40FC-42C0-B198-DF3C5C40E88A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F6C655EB-BA8E-4FBB-8D3D-1801CEBBD8A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,45 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>AKTIVITET</t>
-  </si>
-  <si>
-    <t>Aktivitet 15</t>
-  </si>
-  <si>
-    <t>Aktivitet 16</t>
-  </si>
-  <si>
-    <t>Aktivitet 17</t>
-  </si>
-  <si>
-    <t>Aktivitet 18</t>
-  </si>
-  <si>
-    <t>Aktivitet 19</t>
-  </si>
-  <si>
-    <t>Aktivitet 20</t>
-  </si>
-  <si>
-    <t>Aktivitet 21</t>
-  </si>
-  <si>
-    <t>Aktivitet 22</t>
-  </si>
-  <si>
-    <t>Aktivitet 23</t>
-  </si>
-  <si>
-    <t>Aktivitet 24</t>
-  </si>
-  <si>
-    <t>Aktivitet 25</t>
-  </si>
-  <si>
-    <t>Aktivitet 26</t>
   </si>
   <si>
     <t>STARTDATO FOR PLAN</t>
@@ -1040,10 +1004,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO30"/>
+  <dimension ref="B1:BO29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1061,7 +1025,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
       <c r="B1" s="14" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1076,14 +1040,14 @@
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H2" s="15">
         <v>21</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="31" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -1091,21 +1055,21 @@
       <c r="O2" s="33"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="31" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="R2" s="34"/>
       <c r="S2" s="34"/>
       <c r="T2" s="33"/>
       <c r="U2" s="18"/>
       <c r="V2" s="23" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="W2" s="24"/>
       <c r="X2" s="24"/>
       <c r="Y2" s="35"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="36" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AB2" s="37"/>
       <c r="AC2" s="37"/>
@@ -1115,7 +1079,7 @@
       <c r="AG2" s="38"/>
       <c r="AH2" s="20"/>
       <c r="AI2" s="23" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AJ2" s="24"/>
       <c r="AK2" s="24"/>
@@ -1130,22 +1094,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
@@ -1357,7 +1321,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1377,7 +1341,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="22" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -1397,7 +1361,7 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -1417,7 +1381,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -1437,7 +1401,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -1465,7 +1429,7 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>7</v>
@@ -1474,18 +1438,18 @@
         <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -1494,18 +1458,18 @@
         <v>1</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>7</v>
@@ -1514,13 +1478,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1533,19 +1497,19 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E15" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
         <v>0</v>
@@ -1553,22 +1517,22 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1583,251 +1547,99 @@
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7">
-        <v>8</v>
-      </c>
-      <c r="F19" s="7">
-        <v>5</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.01</v>
-      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7">
-        <v>5</v>
-      </c>
-      <c r="E20" s="7">
-        <v>10</v>
-      </c>
-      <c r="F20" s="7">
-        <v>3</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.8</v>
-      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2</v>
-      </c>
-      <c r="E21" s="7">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7">
-        <v>5</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="7">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7">
-        <v>6</v>
-      </c>
-      <c r="E22" s="7">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7">
-        <v>7</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="7">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>12</v>
-      </c>
-      <c r="F23" s="7">
-        <v>5</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="7">
-        <v>14</v>
-      </c>
-      <c r="D24" s="7">
-        <v>5</v>
-      </c>
-      <c r="E24" s="7">
-        <v>14</v>
-      </c>
-      <c r="F24" s="7">
-        <v>6</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="7">
-        <v>14</v>
-      </c>
-      <c r="D25" s="7">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7">
-        <v>14</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.44</v>
-      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7">
-        <v>7</v>
-      </c>
-      <c r="E26" s="7">
-        <v>14</v>
-      </c>
-      <c r="F26" s="7">
-        <v>3</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7">
-        <v>15</v>
-      </c>
-      <c r="D27" s="7">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7">
-        <v>15</v>
-      </c>
-      <c r="F27" s="7">
-        <v>8</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0.12</v>
-      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
-        <v>15</v>
-      </c>
-      <c r="D28" s="7">
-        <v>5</v>
-      </c>
-      <c r="E28" s="7">
-        <v>15</v>
-      </c>
-      <c r="F28" s="7">
-        <v>3</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0.05</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="7">
-        <v>15</v>
-      </c>
-      <c r="D29" s="7">
-        <v>8</v>
-      </c>
-      <c r="E29" s="7">
-        <v>15</v>
-      </c>
-      <c r="F29" s="7">
-        <v>5</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="7">
-        <v>16</v>
-      </c>
-      <c r="D30" s="7">
-        <v>28</v>
-      </c>
-      <c r="E30" s="7">
-        <v>16</v>
-      </c>
-      <c r="F30" s="7">
-        <v>30</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1844,7 +1656,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO30">
+  <conditionalFormatting sqref="H5:BO29">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>ProcentdelFuldført</formula>
     </cfRule>
@@ -1870,7 +1682,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
+  <conditionalFormatting sqref="B30:BO30">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
